--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipi\Downloads\ecad\ecad-f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0554E32D-3F21-4206-ADCA-53415CC589A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0CF985-41DF-4C1D-AF40-0392EFC0F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B62B0BBA-EC8D-42C9-871F-87B7880C1ADA}"/>
+    <workbookView xWindow="13440" yWindow="1530" windowWidth="12585" windowHeight="13080" xr2:uid="{B62B0BBA-EC8D-42C9-871F-87B7880C1ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -717,11 +717,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A0E09A-4882-4172-929D-94C6D449ACA4}">
   <dimension ref="A1:AO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="13" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -788,7 +794,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1820</v>
       </c>
@@ -871,7 +877,7 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
     </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3435</v>
       </c>
@@ -954,7 +960,7 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
     </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1965</v>
       </c>
@@ -1037,7 +1043,7 @@
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
     </row>
-    <row r="5" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2280</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3318</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1390</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1298</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1088</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3042</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2840</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1820</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2610</v>
       </c>
